--- a/election_votar_data/LOHAGARA/ADHUNAGAR/152550/152550_com_945_female_without_photo_55_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/ADHUNAGAR/152550/152550_com_945_female_without_photo_55_2025-11-24.pdf.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="39.5" customWidth="1" min="4" max="4"/>
     <col width="32.5" customWidth="1" min="5" max="5"/>
-    <col width="38.5" customWidth="1" min="6" max="6"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="F501" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>বেসরকারী চাকুরী জন্ম তারিখ: ১০/০৪/১৯৯৫</t>
         </is>
       </c>
       <c r="G501" s="3" t="inlineStr">
